--- a/subpages/audio/word-level/txt/output_mean_selected.xlsx
+++ b/subpages/audio/word-level/txt/output_mean_selected.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github\yuanchaiyc\website\subpages\audio\word-level\txt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53A4DBFD-A55C-4103-9B79-1EC7DF377E01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{570E8C32-F15D-4D77-999D-78A3ADA253F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,38 +23,22 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">output_mean_selected!$A$1:$S$24</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$1:$F$24</definedName>
     <definedName name="_xlchart.v1.0" hidden="1">output_mean_selected!$E$2:$E$24</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">output_mean_selected!$L$1</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">output_mean_selected!$I$1</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">output_mean_selected!$I$2:$I$24</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">output_mean_selected!$M$1</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">output_mean_selected!$H$1</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">output_mean_selected!$H$2:$H$24</definedName>
     <definedName name="_xlchart.v1.12" hidden="1">output_mean_selected!$E$2:$E$24</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">output_mean_selected!$I$1</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">output_mean_selected!$I$2:$I$24</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">output_mean_selected!$L$1</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">output_mean_selected!$L$2:$L$24</definedName>
     <definedName name="_xlchart.v1.15" hidden="1">output_mean_selected!$E$2:$E$24</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">output_mean_selected!$I$1</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">output_mean_selected!$I$2:$I$24</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">output_mean_selected!$S$1</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">output_mean_selected!$S$2:$S$24</definedName>
     <definedName name="_xlchart.v1.18" hidden="1">output_mean_selected!$E$2:$E$24</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">output_mean_selected!$I$1</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">output_mean_selected!$L$2:$L$24</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">output_mean_selected!$I$2:$I$24</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">output_mean_selected!$E$2:$E$24</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">output_mean_selected!$H$1</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">output_mean_selected!$I$1</definedName>
-    <definedName name="_xlchart.v1.24" hidden="1">output_mean_selected!$I$2:$I$24</definedName>
-    <definedName name="_xlchart.v1.25" hidden="1">output_mean_selected!$E$2:$E$24</definedName>
-    <definedName name="_xlchart.v1.26" hidden="1">output_mean_selected!$M$1</definedName>
-    <definedName name="_xlchart.v1.27" hidden="1">output_mean_selected!$M$2:$M$24</definedName>
-    <definedName name="_xlchart.v1.28" hidden="1">output_mean_selected!$E$2:$E$24</definedName>
-    <definedName name="_xlchart.v1.29" hidden="1">output_mean_selected!$H$1</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">output_mean_selected!$L$1</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">output_mean_selected!$M$2:$M$24</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">output_mean_selected!$L$2:$L$24</definedName>
     <definedName name="_xlchart.v1.3" hidden="1">output_mean_selected!$E$2:$E$24</definedName>
-    <definedName name="_xlchart.v1.30" hidden="1">output_mean_selected!$H$2:$H$24</definedName>
-    <definedName name="_xlchart.v1.31" hidden="1">output_mean_selected!$E$2:$E$24</definedName>
-    <definedName name="_xlchart.v1.32" hidden="1">output_mean_selected!$H$1</definedName>
-    <definedName name="_xlchart.v1.33" hidden="1">output_mean_selected!$H$2:$H$24</definedName>
-    <definedName name="_xlchart.v1.34" hidden="1">output_mean_selected!$E$2:$E$24</definedName>
-    <definedName name="_xlchart.v1.35" hidden="1">output_mean_selected!$S$1</definedName>
-    <definedName name="_xlchart.v1.36" hidden="1">output_mean_selected!$S$2:$S$24</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">output_mean_selected!$H$1</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">output_mean_selected!$H$2:$H$24</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">output_mean_selected!$L$1</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">output_mean_selected!$L$2:$L$24</definedName>
     <definedName name="_xlchart.v1.6" hidden="1">output_mean_selected!$E$2:$E$24</definedName>
     <definedName name="_xlchart.v1.7" hidden="1">output_mean_selected!$I$1</definedName>
     <definedName name="_xlchart.v1.8" hidden="1">output_mean_selected!$I$2:$I$24</definedName>
@@ -800,7 +784,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F3DC57D1-5F70-45D4-B0DB-2E957EC90E77}" type="CELLRANGE">
+                    <a:fld id="{6CE59888-AF53-4A64-BB68-D7E215FF1769}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -833,7 +817,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D0525D1D-93E9-4EAD-A2C6-90185E9BE692}" type="CELLRANGE">
+                    <a:fld id="{4142C8CD-9789-493A-808D-D8FD5ECD255C}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -866,7 +850,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C6954059-1922-4234-84F2-D80FFCB44857}" type="CELLRANGE">
+                    <a:fld id="{6A18800C-29E9-4DF5-ADEC-46E48AF950E0}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -899,7 +883,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C9F7406E-A4F7-432B-9686-4CD3D92AFF34}" type="CELLRANGE">
+                    <a:fld id="{F1F2F87F-3C8F-48DC-BF02-26A952CD589B}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1087,7 +1071,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{11D6D588-796B-41AC-B791-F6F9035F7E7A}" type="CELLRANGE">
+                    <a:fld id="{52CFEC17-7D91-4010-8313-34C2E1AD1DAE}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1120,7 +1104,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F2E51986-2542-4220-BECF-3BA6A97BCC21}" type="CELLRANGE">
+                    <a:fld id="{3B37EA79-5FC4-4290-9757-79F9743E0535}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1153,7 +1137,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4C5C8E52-F7AC-40FD-BB78-1B5AE4475363}" type="CELLRANGE">
+                    <a:fld id="{2C462BBE-E901-41C6-AB2F-6631D703A571}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1186,7 +1170,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{05E49577-332D-4E25-918C-4E388E19A5FE}" type="CELLRANGE">
+                    <a:fld id="{8DEA166C-AE8C-4C19-A614-8D86AAB8B1B8}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1633,10 +1617,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.21</cx:f>
+        <cx:f>_xlchart.v1.6</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.24</cx:f>
+        <cx:f>_xlchart.v1.8</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1674,7 +1658,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{6DBC958E-CFE5-435E-8149-53F7ADC5DA3A}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.23</cx:f>
+              <cx:f>_xlchart.v1.7</cx:f>
               <cx:v>H1H2c_mean</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1704,10 +1688,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.28</cx:f>
+        <cx:f>_xlchart.v1.9</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.30</cx:f>
+        <cx:f>_xlchart.v1.11</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1745,7 +1729,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{5F721333-F609-4647-A7BF-3A03470D703C}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.29</cx:f>
+              <cx:f>_xlchart.v1.10</cx:f>
               <cx:v>H1c_mean</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1781,10 +1765,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.0</cx:f>
+        <cx:f>_xlchart.v1.3</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.2</cx:f>
+        <cx:f>_xlchart.v1.5</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1792,7 +1776,7 @@
     <cx:title pos="t" align="ctr" overlay="0">
       <cx:tx>
         <cx:txData>
-          <cx:v>HNR</cx:v>
+          <cx:v>Harmonic-to-noise ratio</cx:v>
         </cx:txData>
       </cx:tx>
       <cx:txPr>
@@ -1800,10 +1784,10 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr" rtl="0">
-            <a:defRPr/>
+            <a:defRPr sz="2000"/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:rPr lang="en-US" sz="2000" b="0" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000">
                   <a:lumMod val="65000"/>
@@ -1812,7 +1796,7 @@
               </a:solidFill>
               <a:latin typeface="Calibri" panose="020F0502020204030204"/>
             </a:rPr>
-            <a:t>HNR</a:t>
+            <a:t>Harmonic-to-noise ratio</a:t>
           </a:r>
         </a:p>
       </cx:txPr>
@@ -1822,7 +1806,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{2871B367-BE73-4838-9050-E4896EE3E049}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.1</cx:f>
+              <cx:f>_xlchart.v1.4</cx:f>
               <cx:v>HNR05_mean</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1836,6 +1820,24 @@
       <cx:axis id="0">
         <cx:catScaling gapWidth="1"/>
         <cx:tickLabels/>
+        <cx:txPr>
+          <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr sz="1800"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US" sz="1800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:endParaRPr>
+          </a:p>
+        </cx:txPr>
       </cx:axis>
       <cx:axis id="1">
         <cx:valScaling/>
@@ -1852,10 +1854,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.25</cx:f>
+        <cx:f>_xlchart.v1.0</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.27</cx:f>
+        <cx:f>_xlchart.v1.2</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1893,7 +1895,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{3564E48D-C348-4FA4-BA6E-65AC38056432}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.26</cx:f>
+              <cx:f>_xlchart.v1.1</cx:f>
               <cx:v>strF0_mean</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1923,10 +1925,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.34</cx:f>
+        <cx:f>_xlchart.v1.15</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.36</cx:f>
+        <cx:f>_xlchart.v1.17</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1964,7 +1966,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{0F12DFE7-1E32-42D2-8017-70807468C199}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.35</cx:f>
+              <cx:f>_xlchart.v1.16</cx:f>
               <cx:v>soe_mean</cx:v>
             </cx:txData>
           </cx:tx>
@@ -5369,8 +5371,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="7477125" y="5165725"/>
-              <a:ext cx="4572000" cy="2435225"/>
+              <a:off x="8442325" y="5165725"/>
+              <a:ext cx="4743450" cy="2435225"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -5448,7 +5450,7 @@
           <xdr:spPr>
             <a:xfrm>
               <a:off x="2400300" y="5168900"/>
-              <a:ext cx="4572000" cy="1895475"/>
+              <a:ext cx="5403850" cy="1895475"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -5526,7 +5528,7 @@
           <xdr:spPr>
             <a:xfrm>
               <a:off x="2397125" y="7864475"/>
-              <a:ext cx="4572000" cy="2743200"/>
+              <a:ext cx="5403850" cy="2743200"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -5603,8 +5605,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="7470775" y="7864475"/>
-              <a:ext cx="4572000" cy="2743200"/>
+              <a:off x="8435975" y="7864475"/>
+              <a:ext cx="4743450" cy="2743200"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -5682,7 +5684,7 @@
           <xdr:spPr>
             <a:xfrm>
               <a:off x="2384425" y="10982325"/>
-              <a:ext cx="4572000" cy="2743200"/>
+              <a:ext cx="5403850" cy="2743200"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -6055,8 +6057,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q15" sqref="Q15"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7493,6 +7495,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:S24" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
